--- a/XLSX/error_stepcount_RK4-float_total.xlsx
+++ b/XLSX/error_stepcount_RK4-float_total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\RungeKutta\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C86EB1-D0AC-4136-919A-0C9864DD6FD5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1F807-A20F-4247-8B65-5CB81A1FFD49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{BDF5CC2F-CBE2-4F5B-828F-709E0906072C}"/>
   </bookViews>
@@ -116,7 +116,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -129,7 +129,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nl-NL"/>
+              <a:rPr lang="nl-NL" sz="2500" baseline="0"/>
               <a:t>Error as a Function of Step Count (RK4-Float)</a:t>
             </a:r>
           </a:p>
@@ -148,7 +148,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3210,7 +3210,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3223,7 +3223,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
                   <a:t>Step Count</a:t>
                 </a:r>
               </a:p>
@@ -3242,7 +3242,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3280,7 +3280,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3328,7 +3328,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3341,7 +3341,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
                   <a:t>Error</a:t>
                 </a:r>
               </a:p>
@@ -3360,7 +3360,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3398,7 +3398,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4359,7 +4359,7 @@
   <dimension ref="A1:W242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
